--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -63,9 +63,6 @@
     <t>1. Show it to professor</t>
   </si>
   <si>
-    <t>1. ODATA is working</t>
-  </si>
-  <si>
     <t>Implement back-end logic, create ODATA service</t>
   </si>
   <si>
@@ -111,28 +108,31 @@
     <t>Write text describing each HI-FI mockups screen</t>
   </si>
   <si>
-    <t>1. team review</t>
-  </si>
-  <si>
-    <t>1. team review 2. hi-fi mockup uploaded in github in editable format in design folder 3. Each screen uploaded in document folder as jpg</t>
-  </si>
-  <si>
-    <t>1. team review 2.  uploaded in github in editable format in design folder 3.uploaded in document folder as jpg</t>
-  </si>
-  <si>
-    <t>1. team review 2. all figures are uploaded in github in editable format in design folder 3. all figures are uploaded in document folder as jpg</t>
-  </si>
-  <si>
     <t>Write overview text, business requirements table, a text describing each persona and journey figure</t>
   </si>
   <si>
     <t>1. team review 2. uploaded to github</t>
   </si>
   <si>
-    <t xml:space="preserve">1. team review 2. uploaded to github </t>
-  </si>
-  <si>
     <t>Combine all chapters in one document and finalise document (glossary, references, figures, tables)</t>
+  </si>
+  <si>
+    <t>1. ODATA is working 2. present to a team</t>
+  </si>
+  <si>
+    <t>1. team review 2. hi-fi mockup uploaded in github in editable format in design folder 3. Each screen uploaded in document folder as jpg 3. present to a team</t>
+  </si>
+  <si>
+    <t>1. team review 2. present to a team</t>
+  </si>
+  <si>
+    <t>1. team review 2.  uploaded in github in editable format in design folder 3.uploaded in document folder as jpg 4. present to  ateam</t>
+  </si>
+  <si>
+    <t>1. team review 2. uploaded to github 3. present to a team</t>
+  </si>
+  <si>
+    <t>1. team review 2. all figures are uploaded in github in editable format in design folder 3. all figures are uploaded in document folder as jpg 4. present to a team</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,21 +534,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -579,53 +579,53 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -636,16 +636,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -653,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
@@ -670,16 +670,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
@@ -690,16 +690,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -707,16 +707,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,18 +483,18 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -554,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -611,7 +611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -647,8 +647,11 @@
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -665,7 +668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -685,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -702,7 +705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
